--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS  HERRADURA   ENERO  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CREDITOS  HERRADURA   ENERO  2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -109,7 +109,40 @@
     <t>MAURO</t>
   </si>
   <si>
-    <t>14-Ene-23--</t>
+    <t>12-Ene-23--15-Ene-23</t>
+  </si>
+  <si>
+    <t>14-Ene-23--15-Ene-23</t>
+  </si>
+  <si>
+    <t>16-Ene-23--</t>
+  </si>
+  <si>
+    <t>15-Ene-23--17-Ene-23</t>
+  </si>
+  <si>
+    <t>15-Ene-23--19-Ene-23</t>
+  </si>
+  <si>
+    <t>19-Ene-23--20-Ene-23</t>
+  </si>
+  <si>
+    <t>21-Ene-23--22-Ene-23</t>
+  </si>
+  <si>
+    <t>22-Ene-23--23-Ene-23</t>
+  </si>
+  <si>
+    <t>24-Ene-23--25-Ene-23--26-Ene-23</t>
+  </si>
+  <si>
+    <t>26-Ene-23--27-Ene-23</t>
+  </si>
+  <si>
+    <t>28-Ene-23--29-Ene-23</t>
+  </si>
+  <si>
+    <t>29-Ene-23--</t>
   </si>
 </sst>
 </file>
@@ -250,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,12 +317,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,7 +589,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -647,13 +673,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -689,13 +715,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -742,13 +768,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1060,21 +1086,22 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="13.140625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="59" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="58" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="18" style="67" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="18" style="66" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
@@ -1082,26 +1109,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="62"/>
+      <c r="B2" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
     </row>
@@ -1147,11 +1174,11 @@
       <c r="F4" s="19">
         <v>44936</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <v>335</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H154" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H79" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
@@ -1303,11 +1330,15 @@
       <c r="E10" s="22">
         <v>7688</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="23">
+        <v>44943</v>
+      </c>
+      <c r="G10" s="32">
+        <v>7688</v>
+      </c>
       <c r="H10" s="20">
         <f t="shared" si="0"/>
-        <v>7688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1459,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>44938</v>
       </c>
@@ -1475,15 +1506,15 @@
         <v>5327</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G17" s="32">
-        <f>4245</f>
-        <v>4245</v>
+        <f>4245+1082</f>
+        <v>5327</v>
       </c>
       <c r="H17" s="20">
         <f t="shared" si="0"/>
-        <v>1082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1553,11 +1584,15 @@
       <c r="E20" s="22">
         <v>320</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="32"/>
+      <c r="F20" s="23">
+        <v>44950</v>
+      </c>
+      <c r="G20" s="32">
+        <v>320</v>
+      </c>
       <c r="H20" s="20">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1575,14 +1610,18 @@
       <c r="E21" s="22">
         <v>6831</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="23">
+        <v>44941</v>
+      </c>
+      <c r="G21" s="32">
+        <v>6831</v>
+      </c>
       <c r="H21" s="20">
         <f t="shared" si="0"/>
-        <v>6831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>44939</v>
       </c>
@@ -1598,14 +1637,15 @@
         <v>3937</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G22" s="32">
-        <v>2000</v>
+        <f>2000+1937</f>
+        <v>3937</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" si="0"/>
-        <v>1937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1649,11 +1689,15 @@
       <c r="E24" s="22">
         <v>11420</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="32"/>
+      <c r="F24" s="23">
+        <v>44948</v>
+      </c>
+      <c r="G24" s="32">
+        <v>11420</v>
+      </c>
       <c r="H24" s="20">
         <f t="shared" si="0"/>
-        <v>11420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1671,14 +1715,18 @@
       <c r="E25" s="22">
         <v>10240</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="23">
+        <v>44942</v>
+      </c>
+      <c r="G25" s="32">
+        <v>10240</v>
+      </c>
       <c r="H25" s="20">
         <f t="shared" si="0"/>
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>44940</v>
       </c>
@@ -1688,16 +1736,21 @@
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26" s="22">
-        <v>4563</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="32"/>
+        <v>5185</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="32">
+        <f>3200+1985</f>
+        <v>5185</v>
+      </c>
       <c r="H26" s="20">
         <f t="shared" si="0"/>
-        <v>4563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1710,791 +1763,1259 @@
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="22">
+        <v>4563</v>
+      </c>
+      <c r="F27" s="23">
+        <v>44941</v>
+      </c>
+      <c r="G27" s="32">
+        <v>4563</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44941</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>993</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="22">
-        <v>5185</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="20">
-        <f t="shared" si="0"/>
-        <v>5185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15">
-        <f t="shared" si="1"/>
-        <v>993</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="32"/>
+      <c r="E28" s="22">
+        <v>2351</v>
+      </c>
+      <c r="F28" s="23">
+        <v>44945</v>
+      </c>
+      <c r="G28" s="32">
+        <v>2351</v>
+      </c>
       <c r="H28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>44941</v>
+      </c>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
         <v>994</v>
       </c>
       <c r="C29" s="26"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="32"/>
+      <c r="D29" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="22">
+        <v>6732</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="32">
+        <f>4000+2732</f>
+        <v>6732</v>
+      </c>
       <c r="H29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>44941</v>
+      </c>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
         <v>995</v>
       </c>
       <c r="C30" s="26"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="32"/>
+      <c r="D30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="22">
+        <v>5244</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="32">
+        <v>5244</v>
+      </c>
       <c r="H30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>44942</v>
+      </c>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
         <v>996</v>
       </c>
       <c r="C31" s="26"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="32"/>
+      <c r="D31" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="22">
+        <v>6930</v>
+      </c>
+      <c r="F31" s="23">
+        <v>44943</v>
+      </c>
+      <c r="G31" s="32">
+        <v>6930</v>
+      </c>
       <c r="H31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>44942</v>
+      </c>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
         <v>997</v>
       </c>
       <c r="C32" s="26"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="32"/>
+      <c r="D32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="22">
+        <v>4500</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="32">
+        <f>500+3000+1000</f>
+        <v>4500</v>
+      </c>
       <c r="H32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>44942</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>998</v>
       </c>
       <c r="C33" s="26"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="32"/>
+      <c r="D33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22">
+        <v>4250</v>
+      </c>
+      <c r="F33" s="23">
+        <v>44943</v>
+      </c>
+      <c r="G33" s="32">
+        <v>4250</v>
+      </c>
       <c r="H33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>44943</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
       <c r="C34" s="26"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="32"/>
+      <c r="D34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="22">
+        <v>7821</v>
+      </c>
+      <c r="F34" s="23">
+        <v>44946</v>
+      </c>
+      <c r="G34" s="32">
+        <v>7821</v>
+      </c>
       <c r="H34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14">
+        <v>44943</v>
+      </c>
       <c r="B35" s="15">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="32"/>
+      <c r="D35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="22">
+        <v>5456</v>
+      </c>
+      <c r="F35" s="23">
+        <v>44943</v>
+      </c>
+      <c r="G35" s="32">
+        <v>5456</v>
+      </c>
       <c r="H35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="14">
+        <v>44943</v>
+      </c>
       <c r="B36" s="15">
         <f t="shared" si="1"/>
         <v>1001</v>
       </c>
       <c r="C36" s="26"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="22">
+        <v>5900</v>
+      </c>
+      <c r="F36" s="23">
+        <v>44950</v>
+      </c>
+      <c r="G36" s="32">
+        <v>5900</v>
+      </c>
       <c r="H36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14">
+        <v>44944</v>
+      </c>
       <c r="B37" s="15">
         <f t="shared" si="1"/>
         <v>1002</v>
       </c>
       <c r="C37" s="26"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="32"/>
+      <c r="D37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="22">
+        <v>7938</v>
+      </c>
+      <c r="F37" s="23">
+        <v>44945</v>
+      </c>
+      <c r="G37" s="32">
+        <v>7938</v>
+      </c>
       <c r="H37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14">
+        <v>44944</v>
+      </c>
       <c r="B38" s="15">
         <f t="shared" si="1"/>
         <v>1003</v>
       </c>
       <c r="C38" s="26"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="32"/>
+      <c r="D38" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="22">
+        <v>4734</v>
+      </c>
+      <c r="F38" s="23">
+        <v>44945</v>
+      </c>
+      <c r="G38" s="32">
+        <v>4734</v>
+      </c>
       <c r="H38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14">
+        <v>44945</v>
+      </c>
       <c r="B39" s="15">
         <f t="shared" si="1"/>
         <v>1004</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="32"/>
+      <c r="D39" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="22">
+        <v>3631</v>
+      </c>
+      <c r="F39" s="23">
+        <v>44950</v>
+      </c>
+      <c r="G39" s="32">
+        <v>3631</v>
+      </c>
       <c r="H39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14">
+        <v>44945</v>
+      </c>
       <c r="B40" s="15">
         <f t="shared" si="1"/>
         <v>1005</v>
       </c>
       <c r="C40" s="26"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="32"/>
+      <c r="D40" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="22">
+        <v>1778</v>
+      </c>
+      <c r="F40" s="23">
+        <v>44947</v>
+      </c>
+      <c r="G40" s="32">
+        <v>1778</v>
+      </c>
       <c r="H40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14">
+        <v>44945</v>
+      </c>
       <c r="B41" s="15">
         <f t="shared" si="1"/>
         <v>1006</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="32"/>
+      <c r="D41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="22">
+        <v>3344</v>
+      </c>
+      <c r="F41" s="23">
+        <v>44946</v>
+      </c>
+      <c r="G41" s="32">
+        <v>3344</v>
+      </c>
       <c r="H41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>44946</v>
+      </c>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>1007</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="32"/>
+      <c r="D42" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="22">
+        <v>6828</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="32">
+        <f>5000+1828</f>
+        <v>6828</v>
+      </c>
       <c r="H42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14">
+        <v>44946</v>
+      </c>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="32"/>
+      <c r="D43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="22">
+        <v>4326</v>
+      </c>
+      <c r="F43" s="23">
+        <v>44947</v>
+      </c>
+      <c r="G43" s="32">
+        <v>4326</v>
+      </c>
       <c r="H43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14">
+        <v>44946</v>
+      </c>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>1009</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="32"/>
+      <c r="D44" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="22">
+        <v>15860</v>
+      </c>
+      <c r="F44" s="23">
+        <v>44955</v>
+      </c>
+      <c r="G44" s="32">
+        <v>15860</v>
+      </c>
       <c r="H44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>44946</v>
+      </c>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>1010</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="22">
+        <v>2520</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="32">
+        <f>1000+1520</f>
+        <v>2520</v>
+      </c>
       <c r="H45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>44946</v>
+      </c>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>1011</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="32"/>
+      <c r="D46" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="22">
+        <v>8400</v>
+      </c>
+      <c r="F46" s="23">
+        <v>44949</v>
+      </c>
+      <c r="G46" s="32">
+        <v>8400</v>
+      </c>
       <c r="H46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14">
+        <v>44947</v>
+      </c>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>1012</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="32"/>
+      <c r="D47" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="22">
+        <v>246</v>
+      </c>
+      <c r="F47" s="23">
+        <v>44950</v>
+      </c>
+      <c r="G47" s="32">
+        <v>246</v>
+      </c>
       <c r="H47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+    <row r="48" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>44947</v>
+      </c>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
       <c r="C48" s="29"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="32"/>
+      <c r="D48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="22">
+        <v>6515</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="32">
+        <f>5515+1000</f>
+        <v>6515</v>
+      </c>
       <c r="H48" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>44947</v>
+      </c>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>1014</v>
       </c>
       <c r="C49" s="26"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="32"/>
+      <c r="D49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="22">
+        <v>3510</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="32">
+        <f>1500+400+1610</f>
+        <v>3510</v>
+      </c>
       <c r="H49" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14">
+        <v>44947</v>
+      </c>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>1015</v>
       </c>
       <c r="C50" s="26"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="32"/>
+      <c r="D50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="22">
+        <v>454</v>
+      </c>
+      <c r="F50" s="23">
+        <v>44948</v>
+      </c>
+      <c r="G50" s="32">
+        <v>454</v>
+      </c>
       <c r="H50" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>44947</v>
+      </c>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
         <v>1016</v>
       </c>
       <c r="C51" s="26"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="32"/>
+      <c r="D51" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="22">
+        <v>6579</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="32">
+        <f>2572+4007</f>
+        <v>6579</v>
+      </c>
       <c r="H51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="14">
+        <v>44947</v>
+      </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
         <v>1017</v>
       </c>
       <c r="C52" s="26"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="32"/>
+      <c r="D52" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="22">
+        <v>5151</v>
+      </c>
+      <c r="F52" s="23">
+        <v>44948</v>
+      </c>
+      <c r="G52" s="32">
+        <v>5151</v>
+      </c>
       <c r="H52" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>44948</v>
+      </c>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
         <v>1018</v>
       </c>
       <c r="C53" s="26"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="32"/>
+      <c r="D53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="22">
+        <v>3630</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="32">
+        <f>2600+900+130</f>
+        <v>3630</v>
+      </c>
       <c r="H53" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="14">
+        <v>44948</v>
+      </c>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
         <v>1019</v>
       </c>
       <c r="C54" s="26"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="32"/>
+      <c r="D54" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="22">
+        <v>4936</v>
+      </c>
+      <c r="F54" s="23">
+        <v>44949</v>
+      </c>
+      <c r="G54" s="32">
+        <v>4936</v>
+      </c>
       <c r="H54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="30">
+        <v>44949</v>
+      </c>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
         <v>1020</v>
       </c>
       <c r="C55" s="26"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="32"/>
+      <c r="D55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="31">
+        <v>59583</v>
+      </c>
+      <c r="F55" s="23">
+        <v>44950</v>
+      </c>
+      <c r="G55" s="32">
+        <v>59583</v>
+      </c>
       <c r="H55" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="14">
+        <v>44949</v>
+      </c>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
         <v>1021</v>
       </c>
       <c r="C56" s="26"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="32"/>
+      <c r="D56" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="22">
+        <v>762</v>
+      </c>
+      <c r="F56" s="23">
+        <v>44951</v>
+      </c>
+      <c r="G56" s="32">
+        <v>762</v>
+      </c>
       <c r="H56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14">
+        <v>44949</v>
+      </c>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
         <v>1022</v>
       </c>
       <c r="C57" s="26"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="32"/>
+      <c r="D57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="22">
+        <v>5865</v>
+      </c>
+      <c r="F57" s="23">
+        <v>44950</v>
+      </c>
+      <c r="G57" s="32">
+        <v>5865</v>
+      </c>
       <c r="H57" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="14">
+        <v>44950</v>
+      </c>
       <c r="B58" s="15">
         <f t="shared" si="1"/>
         <v>1023</v>
       </c>
       <c r="C58" s="26"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="32"/>
+      <c r="D58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="22">
+        <v>2097</v>
+      </c>
+      <c r="F58" s="23">
+        <v>44952</v>
+      </c>
+      <c r="G58" s="32">
+        <v>2097</v>
+      </c>
       <c r="H58" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14">
+        <v>44950</v>
+      </c>
       <c r="B59" s="15">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="32"/>
+      <c r="D59" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="22">
+        <v>3001</v>
+      </c>
+      <c r="F59" s="23">
+        <v>44951</v>
+      </c>
+      <c r="G59" s="32">
+        <v>3001</v>
+      </c>
       <c r="H59" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14">
+        <v>44951</v>
+      </c>
       <c r="B60" s="15">
         <f t="shared" si="1"/>
         <v>1025</v>
       </c>
       <c r="C60" s="26"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="32"/>
+      <c r="D60" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="22">
+        <v>944</v>
+      </c>
+      <c r="F60" s="23">
+        <v>44953</v>
+      </c>
+      <c r="G60" s="32">
+        <v>944</v>
+      </c>
       <c r="H60" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="14">
+        <v>44951</v>
+      </c>
       <c r="B61" s="15">
         <f t="shared" si="1"/>
         <v>1026</v>
       </c>
       <c r="C61" s="26"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="32"/>
+      <c r="D61" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="22">
+        <v>2597</v>
+      </c>
+      <c r="F61" s="23">
+        <v>44952</v>
+      </c>
+      <c r="G61" s="32">
+        <v>2597</v>
+      </c>
       <c r="H61" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14">
+        <v>44952</v>
+      </c>
       <c r="B62" s="15">
         <f t="shared" si="1"/>
         <v>1027</v>
       </c>
       <c r="C62" s="26"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="32"/>
+      <c r="D62" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="22">
+        <v>295</v>
+      </c>
+      <c r="F62" s="23">
+        <v>44952</v>
+      </c>
+      <c r="G62" s="32">
+        <v>295</v>
+      </c>
       <c r="H62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>44952</v>
+      </c>
       <c r="B63" s="15">
         <f t="shared" si="1"/>
         <v>1028</v>
       </c>
       <c r="C63" s="26"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="32"/>
+      <c r="D63" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="22">
+        <v>958</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="32">
+        <f>134+824</f>
+        <v>958</v>
+      </c>
       <c r="H63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14">
+        <v>44952</v>
+      </c>
       <c r="B64" s="15">
         <f t="shared" si="1"/>
         <v>1029</v>
       </c>
       <c r="C64" s="26"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="32"/>
+      <c r="D64" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="22">
+        <v>1367</v>
+      </c>
+      <c r="F64" s="23">
+        <v>44953</v>
+      </c>
+      <c r="G64" s="32">
+        <v>1367</v>
+      </c>
       <c r="H64" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="24">
+        <v>44952</v>
+      </c>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
         <v>1030</v>
       </c>
       <c r="C65" s="26"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="32"/>
+      <c r="D65" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="22">
+        <v>3199</v>
+      </c>
+      <c r="F65" s="23">
+        <v>44953</v>
+      </c>
+      <c r="G65" s="32">
+        <v>3199</v>
+      </c>
       <c r="H65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
+    <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
+        <v>44953</v>
+      </c>
       <c r="B66" s="15">
         <f t="shared" si="1"/>
         <v>1031</v>
       </c>
       <c r="C66" s="26"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="32"/>
+      <c r="D66" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="22">
+        <v>1560</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="32">
+        <f>1060+500</f>
+        <v>1560</v>
+      </c>
       <c r="H66" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="24">
+        <v>44953</v>
+      </c>
       <c r="B67" s="15">
         <f t="shared" si="1"/>
         <v>1032</v>
       </c>
       <c r="C67" s="26"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="32"/>
+      <c r="D67" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="22">
+        <v>5246</v>
+      </c>
+      <c r="F67" s="23">
+        <v>44954</v>
+      </c>
+      <c r="G67" s="32">
+        <v>5246</v>
+      </c>
       <c r="H67" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="24">
+        <v>44953</v>
+      </c>
       <c r="B68" s="15">
         <f t="shared" si="1"/>
         <v>1033</v>
       </c>
       <c r="C68" s="26"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="22"/>
+      <c r="D68" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="22">
+        <v>16800</v>
+      </c>
       <c r="F68" s="23"/>
       <c r="G68" s="32"/>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="24">
+        <v>44954</v>
+      </c>
       <c r="B69" s="15">
         <f t="shared" si="1"/>
         <v>1034</v>
       </c>
       <c r="C69" s="26"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="22"/>
+      <c r="D69" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="22">
+        <v>1547</v>
+      </c>
       <c r="F69" s="23"/>
       <c r="G69" s="32"/>
       <c r="H69" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="24">
+        <v>44954</v>
+      </c>
       <c r="B70" s="15">
-        <f t="shared" ref="B70:B133" si="2">B69+1</f>
+        <f t="shared" ref="B70:B75" si="2">B69+1</f>
         <v>1035</v>
       </c>
       <c r="C70" s="26"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="32"/>
+      <c r="D70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="22">
+        <v>3037</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="32">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
       <c r="H70" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="24">
+        <v>44954</v>
+      </c>
       <c r="B71" s="15">
         <f t="shared" si="2"/>
         <v>1036</v>
       </c>
       <c r="C71" s="26"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="32"/>
+      <c r="D71" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="22">
+        <v>5246</v>
+      </c>
+      <c r="F71" s="23">
+        <v>44955</v>
+      </c>
+      <c r="G71" s="32">
+        <v>5246</v>
+      </c>
       <c r="H71" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
+    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24">
+        <v>44954</v>
+      </c>
       <c r="B72" s="15">
         <f t="shared" si="2"/>
         <v>1037</v>
       </c>
       <c r="C72" s="26"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="22"/>
+      <c r="D72" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="22">
+        <v>7800</v>
+      </c>
       <c r="F72" s="23"/>
       <c r="G72" s="32"/>
       <c r="H72" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
+        <v>44955</v>
+      </c>
       <c r="B73" s="15">
         <f t="shared" si="2"/>
         <v>1038</v>
       </c>
       <c r="C73" s="26"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="22"/>
+      <c r="D73" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="22">
+        <v>1248</v>
+      </c>
       <c r="F73" s="23"/>
       <c r="G73" s="32"/>
       <c r="H73" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
+        <v>44955</v>
+      </c>
       <c r="B74" s="15">
         <f t="shared" si="2"/>
         <v>1039</v>
       </c>
       <c r="C74" s="26"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="22"/>
+      <c r="D74" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="22">
+        <v>4395</v>
+      </c>
       <c r="F74" s="23"/>
       <c r="G74" s="32"/>
       <c r="H74" s="20">
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
+    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
+        <v>44955</v>
+      </c>
       <c r="B75" s="15">
         <f t="shared" si="2"/>
         <v>1040</v>
       </c>
       <c r="C75" s="26"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="22"/>
+      <c r="D75" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="22">
+        <v>4906</v>
+      </c>
       <c r="F75" s="23"/>
       <c r="G75" s="32"/>
       <c r="H75" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="15">
-        <f t="shared" si="2"/>
-        <v>1041</v>
-      </c>
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="26"/>
       <c r="D76" s="35"/>
       <c r="E76" s="22"/>
@@ -2505,12 +3026,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
-      <c r="B77" s="15">
-        <f t="shared" si="2"/>
-        <v>1042</v>
-      </c>
+    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="26"/>
       <c r="D77" s="35"/>
       <c r="E77" s="22"/>
@@ -2521,1414 +3039,226 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
-      <c r="B78" s="15">
-        <f t="shared" si="2"/>
-        <v>1043</v>
-      </c>
+      <c r="B78" s="15"/>
       <c r="C78" s="26"/>
-      <c r="D78" s="35"/>
+      <c r="D78" s="37"/>
       <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
+      <c r="F78" s="38"/>
       <c r="G78" s="32"/>
       <c r="H78" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
-      <c r="B79" s="15">
-        <f t="shared" si="2"/>
-        <v>1044</v>
-      </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="32"/>
+    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42">
+        <v>0</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="63"/>
       <c r="H79" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
-      <c r="B80" s="15">
-        <f t="shared" si="2"/>
-        <v>1045</v>
-      </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
-      <c r="B81" s="15">
-        <f t="shared" si="2"/>
-        <v>1046</v>
-      </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
-      <c r="B82" s="15">
-        <f t="shared" si="2"/>
-        <v>1047</v>
-      </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="15">
-        <f t="shared" si="2"/>
-        <v>1048</v>
-      </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
-      <c r="B84" s="15">
-        <f t="shared" si="2"/>
-        <v>1049</v>
-      </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="15">
-        <f t="shared" si="2"/>
-        <v>1050</v>
-      </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="15">
-        <f t="shared" si="2"/>
-        <v>1051</v>
-      </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
-      <c r="B87" s="15">
-        <f t="shared" si="2"/>
-        <v>1052</v>
-      </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="46">
+        <f>SUM(E4:E79)</f>
+        <v>385990</v>
+      </c>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47">
+        <f>SUM(G4:G79)</f>
+        <v>348257</v>
+      </c>
+      <c r="H80" s="48">
+        <f>SUM(H4:H79)</f>
+        <v>33694</v>
+      </c>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="50"/>
+      <c r="G82" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="51"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="71">
+        <f>E80-G80</f>
+        <v>37733</v>
+      </c>
+      <c r="F84" s="72"/>
+      <c r="G84" s="73"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="64"/>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="64"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="24"/>
-      <c r="B88" s="15">
-        <f t="shared" si="2"/>
-        <v>1053</v>
-      </c>
+      <c r="B88" s="15"/>
       <c r="C88" s="26"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="15">
-        <f t="shared" si="2"/>
-        <v>1054</v>
-      </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
-      <c r="B90" s="15">
-        <f t="shared" si="2"/>
-        <v>1055</v>
-      </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="15">
-        <f t="shared" si="2"/>
-        <v>1056</v>
-      </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
-      <c r="B92" s="15">
-        <f t="shared" si="2"/>
-        <v>1057</v>
-      </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
-      <c r="B93" s="15">
-        <f t="shared" si="2"/>
-        <v>1058</v>
-      </c>
-      <c r="C93" s="26"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="15">
-        <f t="shared" si="2"/>
-        <v>1059</v>
-      </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
-      <c r="B95" s="15">
-        <f t="shared" si="2"/>
-        <v>1060</v>
-      </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
-      <c r="B96" s="15">
-        <f t="shared" si="2"/>
-        <v>1061</v>
-      </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
-      <c r="B97" s="15">
-        <f t="shared" si="2"/>
-        <v>1062</v>
-      </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
-      <c r="B98" s="15">
-        <f t="shared" si="2"/>
-        <v>1063</v>
-      </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
-      <c r="B99" s="15">
-        <f t="shared" si="2"/>
-        <v>1064</v>
-      </c>
-      <c r="C99" s="26"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="24"/>
-      <c r="B100" s="15">
-        <f t="shared" si="2"/>
-        <v>1065</v>
-      </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="24"/>
-      <c r="B101" s="15">
-        <f t="shared" si="2"/>
-        <v>1066</v>
-      </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="24"/>
-      <c r="B102" s="15">
-        <f t="shared" si="2"/>
-        <v>1067</v>
-      </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="15">
-        <f t="shared" si="2"/>
-        <v>1068</v>
-      </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="24"/>
-      <c r="B104" s="15">
-        <f t="shared" si="2"/>
-        <v>1069</v>
-      </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="24"/>
-      <c r="B105" s="15">
-        <f t="shared" si="2"/>
-        <v>1070</v>
-      </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="24"/>
-      <c r="B106" s="15">
-        <f t="shared" si="2"/>
-        <v>1071</v>
-      </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="24"/>
-      <c r="B107" s="15">
-        <f t="shared" si="2"/>
-        <v>1072</v>
-      </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="24"/>
-      <c r="B108" s="15">
-        <f t="shared" si="2"/>
-        <v>1073</v>
-      </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
-      <c r="B109" s="15">
-        <f t="shared" si="2"/>
-        <v>1074</v>
-      </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="24"/>
-      <c r="B110" s="15">
-        <f t="shared" si="2"/>
-        <v>1075</v>
-      </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="24"/>
-      <c r="B111" s="15">
-        <f t="shared" si="2"/>
-        <v>1076</v>
-      </c>
-      <c r="C111" s="26"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
-      <c r="B112" s="15">
-        <f t="shared" si="2"/>
-        <v>1077</v>
-      </c>
-      <c r="C112" s="26"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="15">
-        <f t="shared" si="2"/>
-        <v>1078</v>
-      </c>
-      <c r="C113" s="26"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="24"/>
-      <c r="B114" s="15">
-        <f t="shared" si="2"/>
-        <v>1079</v>
-      </c>
-      <c r="C114" s="26"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
-      <c r="B115" s="15">
-        <f t="shared" si="2"/>
-        <v>1080</v>
-      </c>
-      <c r="C115" s="26"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
-      <c r="B116" s="15">
-        <f t="shared" si="2"/>
-        <v>1081</v>
-      </c>
-      <c r="C116" s="26"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="15">
-        <f t="shared" si="2"/>
-        <v>1082</v>
-      </c>
-      <c r="C117" s="26"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="15">
-        <f t="shared" si="2"/>
-        <v>1083</v>
-      </c>
-      <c r="C118" s="26"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="15">
-        <f t="shared" si="2"/>
-        <v>1084</v>
-      </c>
-      <c r="C119" s="26"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
-      <c r="B120" s="15">
-        <f t="shared" si="2"/>
-        <v>1085</v>
-      </c>
-      <c r="C120" s="26"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="15">
-        <f t="shared" si="2"/>
-        <v>1086</v>
-      </c>
-      <c r="C121" s="26"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="15">
-        <f t="shared" si="2"/>
-        <v>1087</v>
-      </c>
-      <c r="C122" s="26"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="15">
-        <f t="shared" si="2"/>
-        <v>1088</v>
-      </c>
-      <c r="C123" s="26"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="15">
-        <f t="shared" si="2"/>
-        <v>1089</v>
-      </c>
-      <c r="C124" s="26"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="15">
-        <f t="shared" si="2"/>
-        <v>1090</v>
-      </c>
-      <c r="C125" s="26"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="15">
-        <f t="shared" si="2"/>
-        <v>1091</v>
-      </c>
-      <c r="C126" s="26"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="15">
-        <f t="shared" si="2"/>
-        <v>1092</v>
-      </c>
-      <c r="C127" s="26"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36"/>
-      <c r="B128" s="15">
-        <f t="shared" si="2"/>
-        <v>1093</v>
-      </c>
-      <c r="C128" s="26"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="36"/>
-      <c r="B129" s="15">
-        <f t="shared" si="2"/>
-        <v>1094</v>
-      </c>
-      <c r="C129" s="26"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="36"/>
-      <c r="B130" s="15">
-        <f t="shared" si="2"/>
-        <v>1095</v>
-      </c>
-      <c r="C130" s="26"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="36"/>
-      <c r="B131" s="15">
-        <f t="shared" si="2"/>
-        <v>1096</v>
-      </c>
-      <c r="C131" s="26"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="36"/>
-      <c r="B132" s="15">
-        <f t="shared" si="2"/>
-        <v>1097</v>
-      </c>
-      <c r="C132" s="26"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
-      <c r="B133" s="15">
-        <f t="shared" si="2"/>
-        <v>1098</v>
-      </c>
-      <c r="C133" s="26"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="36"/>
-      <c r="B134" s="15">
-        <f t="shared" ref="B134:B148" si="3">B133+1</f>
-        <v>1099</v>
-      </c>
-      <c r="C134" s="26"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="36"/>
-      <c r="B135" s="15">
-        <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="C135" s="26"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
-      <c r="B136" s="15">
-        <f t="shared" si="3"/>
-        <v>1101</v>
-      </c>
-      <c r="C136" s="26"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="15">
-        <f t="shared" si="3"/>
-        <v>1102</v>
-      </c>
-      <c r="C137" s="26"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="15">
-        <f t="shared" si="3"/>
-        <v>1103</v>
-      </c>
-      <c r="C138" s="26"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="15">
-        <f t="shared" si="3"/>
-        <v>1104</v>
-      </c>
-      <c r="C139" s="26"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="23"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="15">
-        <f t="shared" si="3"/>
-        <v>1105</v>
-      </c>
-      <c r="C140" s="26"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="15">
-        <f t="shared" si="3"/>
-        <v>1106</v>
-      </c>
-      <c r="C141" s="26"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="15">
-        <f t="shared" si="3"/>
-        <v>1107</v>
-      </c>
-      <c r="C142" s="26"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="36"/>
-      <c r="B143" s="15">
-        <f t="shared" si="3"/>
-        <v>1108</v>
-      </c>
-      <c r="C143" s="26"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="15">
-        <f t="shared" si="3"/>
-        <v>1109</v>
-      </c>
-      <c r="C144" s="26"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
-      <c r="B145" s="15">
-        <f t="shared" si="3"/>
-        <v>1110</v>
-      </c>
-      <c r="C145" s="26"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="36"/>
-      <c r="B146" s="15">
-        <f t="shared" si="3"/>
-        <v>1111</v>
-      </c>
-      <c r="C146" s="26"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="36"/>
-      <c r="B147" s="15">
-        <f t="shared" si="3"/>
-        <v>1112</v>
-      </c>
-      <c r="C147" s="26"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="36"/>
-      <c r="B148" s="15">
-        <f t="shared" si="3"/>
-        <v>1113</v>
-      </c>
-      <c r="C148" s="26"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="36"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="32"/>
-      <c r="H149" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="36"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="32"/>
-      <c r="H150" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="36"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="35"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="32"/>
-      <c r="H151" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="32"/>
-      <c r="H152" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="38"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="39"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="40"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="42"/>
-      <c r="E154" s="43">
-        <v>0</v>
-      </c>
-      <c r="F154" s="44"/>
-      <c r="G154" s="64"/>
-      <c r="H154" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I154" s="3"/>
-    </row>
-    <row r="155" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="45"/>
-      <c r="C155" s="46"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="47">
-        <f>SUM(E4:E154)</f>
-        <v>113973</v>
-      </c>
-      <c r="F155" s="48"/>
-      <c r="G155" s="48">
-        <f>SUM(G4:G154)</f>
-        <v>64707</v>
-      </c>
-      <c r="H155" s="49">
-        <f>SUM(H4:H154)</f>
-        <v>49622</v>
-      </c>
-      <c r="I155" s="3"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="45"/>
-      <c r="C156" s="46"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="50"/>
-      <c r="F156" s="51"/>
-      <c r="G156" s="65"/>
-      <c r="H156" s="52"/>
-      <c r="I156" s="3"/>
-    </row>
-    <row r="157" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B157" s="45"/>
-      <c r="C157" s="46"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" s="51"/>
-      <c r="G157" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="H157" s="52"/>
-      <c r="I157" s="3"/>
-    </row>
-    <row r="158" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="45"/>
-      <c r="C158" s="46"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="51"/>
-      <c r="G158" s="54"/>
-      <c r="H158" s="52"/>
-      <c r="I158" s="3"/>
-    </row>
-    <row r="159" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B159" s="45"/>
-      <c r="C159" s="46"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="72">
-        <f>E155-G155</f>
-        <v>49266</v>
-      </c>
-      <c r="F159" s="73"/>
-      <c r="G159" s="74"/>
-      <c r="I159" s="3"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="45"/>
-      <c r="C160" s="46"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="51"/>
-      <c r="G160" s="65"/>
-      <c r="I160" s="3"/>
-    </row>
-    <row r="161" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B161" s="45"/>
-      <c r="C161" s="46"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" s="75"/>
-      <c r="G161" s="75"/>
-      <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="45"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="51"/>
-      <c r="G162" s="65"/>
-      <c r="I162" s="3"/>
-    </row>
-    <row r="163" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A163" s="24"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="57"/>
-      <c r="G163" s="66"/>
-      <c r="I163" s="3"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="45"/>
-      <c r="C164" s="46"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="51"/>
-      <c r="G164" s="65"/>
-      <c r="I164" s="3"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B165" s="45"/>
-      <c r="C165" s="46"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="51"/>
-      <c r="G165" s="65"/>
-      <c r="I165" s="3"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B166" s="45"/>
-      <c r="C166" s="46"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="51"/>
-      <c r="G166" s="65"/>
-      <c r="I166" s="3"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B167" s="45"/>
-      <c r="C167" s="46"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="50"/>
-      <c r="F167" s="51"/>
-      <c r="G167" s="65"/>
-      <c r="I167" s="3"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="45"/>
-      <c r="C168" s="46"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="51"/>
-      <c r="G168" s="65"/>
-      <c r="I168" s="3"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="45"/>
-      <c r="C169" s="46"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="50"/>
-      <c r="F169" s="51"/>
-      <c r="G169" s="65"/>
-      <c r="I169" s="3"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="45"/>
-      <c r="C170" s="46"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="51"/>
-      <c r="G170" s="65"/>
-      <c r="I170" s="3"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="45"/>
-      <c r="C171" s="46"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="51"/>
-      <c r="G171" s="65"/>
-      <c r="I171" s="3"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B172" s="45"/>
-      <c r="C172" s="46"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="51"/>
-      <c r="G172" s="65"/>
-      <c r="I172" s="3"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="65"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="64"/>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="44"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="64"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="64"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="64"/>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="64"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="64"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="64"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="44"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="64"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="44"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="64"/>
+      <c r="I97" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
